--- a/ExcelToAppleCalendar.App/DataFiles/DataFile.xlsx
+++ b/ExcelToAppleCalendar.App/DataFiles/DataFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethanhutchins/Developer/ExcelToAppleCalendar/ExcelToAppleCalendar.App/DataFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ethan/Development/ExcelToAppleCalendar/ExcelToAppleCalendar.App/DataFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F801DA-239C-1645-9EA6-BF7683023862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB15880D-D2A6-C349-90CF-5A1721C395DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="29920" windowHeight="18560" xr2:uid="{106FDA43-6D70-9946-A852-DC0D8C6FD164}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="32">
   <si>
     <t>W/C</t>
   </si>
@@ -68,59 +68,77 @@
     <t>Ethan</t>
   </si>
   <si>
-    <t>Sydenham Community Centre, TA6 4QZ</t>
-  </si>
-  <si>
-    <t>Alan</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>West Huntspill B</t>
-  </si>
-  <si>
-    <t>Balliol Hall, West Huntspill, TA9 3RN</t>
-  </si>
-  <si>
-    <t>STTC Hawkes</t>
-  </si>
-  <si>
-    <t>Stockland Tigars</t>
-  </si>
-  <si>
-    <t>Somerset Sabres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enmore C of E Primary School, TA5 2DX </t>
-  </si>
-  <si>
-    <t>West Huntspill A</t>
-  </si>
-  <si>
-    <t>STTC Cobras</t>
-  </si>
-  <si>
-    <t>Sydenham A</t>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Monday Knights</t>
+  </si>
+  <si>
+    <t>Sampford Arundel Village Hall</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Neo</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>ATTC Aces</t>
+  </si>
+  <si>
+    <t>Sydenham Community Centre</t>
+  </si>
+  <si>
+    <t>Balliol Hall West Huntspill</t>
+  </si>
+  <si>
+    <t>STTC Swallows</t>
+  </si>
+  <si>
+    <t>Weston Warriors</t>
+  </si>
+  <si>
+    <t>Broadoak Sports Academy</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Somerset Sabres Enmore</t>
+  </si>
+  <si>
+    <t>Enmore School</t>
+  </si>
+  <si>
+    <t>ATTC Allstars</t>
+  </si>
+  <si>
+    <t>West Hunstpill 'B'</t>
+  </si>
+  <si>
+    <t>Stockland Tigers</t>
   </si>
   <si>
     <t>STTC Slappers</t>
   </si>
   <si>
-    <t>Monday Knights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sampford Arundel Village Hall, TA21 9QN </t>
+    <t>STTC Vipers</t>
+  </si>
+  <si>
+    <t>Ashcott Village Hall</t>
+  </si>
+  <si>
+    <t>Stockland Club, TA5 2PY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,8 +160,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +183,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,33 +229,64 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7F17AE-BC5B-6F4A-90E9-F6F3D6DB85C4}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B25" sqref="B25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -578,316 +657,641 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>45670</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="3">
+        <v>45915</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>45922</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>45929</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6">
-        <v>0.8125</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E4" s="15">
+        <v>0.8125</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>45936</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>45943</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>45950</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="C7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.8125</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>45957</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>45964</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.8125</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>45971</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0.8125</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>45978</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.8125</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>45985</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>45992</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>45999</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0.8125</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>46006</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>46013</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>46020</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>46027</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>45677</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="D18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.8125</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>46034</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0.8125</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>46041</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>46048</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0.8125</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>46055</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6">
-        <v>0.8125</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>45684</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="E22" s="15">
+        <v>0.8125</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="G22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>46062</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>46069</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0.8125</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>46076</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>46083</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0.8125</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>46090</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6">
-        <v>0.8125</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>45691</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="E27" s="15">
+        <v>0.8125</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>46097</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="6">
-        <v>0.8125</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>45705</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.8125</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>45712</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0.8125</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>45719</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.8125</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>45726</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.8125</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>45733</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0.8125</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
+      <c r="E28" s="15">
+        <v>0.8125</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>46104</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>46111</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>46118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>46125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>46132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>46139</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
